--- a/Résultats5A.xlsx
+++ b/Résultats5A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2DA71D-E8DD-411C-8DA5-4A4F18E74A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B95CE-28E7-432C-B109-18E57CF1315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -180,10 +180,10 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +578,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -594,7 +594,7 @@
       </c>
       <c r="B1" s="4">
         <f>IFERROR(SUMPRODUCT(C25:C30,B25:B30)/SUM(B25:B30),"")</f>
-        <v>6.4375</v>
+        <v>8.6374999999999993</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -610,13 +610,13 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -631,15 +631,15 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>12.75</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4">
         <f t="shared" ref="I4:I5" si="0">IFERROR(AVERAGE(D4:H4),"")</f>
         <v>15.375</v>
@@ -655,15 +655,15 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -679,39 +679,39 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>17</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>16.2</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6">
         <f>IFERROR(AVERAGE(D6:H6),"")</f>
         <v>16.400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
@@ -723,11 +723,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" t="str">
         <f t="shared" ref="I9:I22" si="1">IFERROR(AVERAGE(D9:H9),"")</f>
         <v/>
@@ -743,14 +743,16 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" t="str">
+      <c r="D10" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
@@ -763,11 +765,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -783,11 +785,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
@@ -799,33 +801,33 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -837,11 +839,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -857,11 +859,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -877,11 +879,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -897,11 +899,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -917,11 +919,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I22" t="str">
@@ -985,7 +987,7 @@
       </c>
       <c r="C28">
         <f>IFERROR(AVERAGE(I10,I17,I20),0)</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">

--- a/Résultats5A.xlsx
+++ b/Résultats5A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B95CE-28E7-432C-B109-18E57CF1315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DD1B2-C8DB-49DE-B8FD-6016BB2B81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -267,6 +267,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEEDDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -578,7 +583,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -594,7 +599,7 @@
       </c>
       <c r="B1" s="4">
         <f>IFERROR(SUMPRODUCT(C25:C30,B25:B30)/SUM(B25:B30),"")</f>
-        <v>8.6374999999999993</v>
+        <v>8.6208333333333336</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -746,13 +751,15 @@
       <c r="D10" s="5">
         <v>16.5</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
@@ -859,14 +866,16 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" t="str">
+      <c r="I17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
@@ -987,7 +996,7 @@
       </c>
       <c r="C28">
         <f>IFERROR(AVERAGE(I10,I17,I20),0)</f>
-        <v>16.5</v>
+        <v>16.375</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">

--- a/Résultats5A.xlsx
+++ b/Résultats5A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DD1B2-C8DB-49DE-B8FD-6016BB2B81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8A193-C0FA-41EE-9A0F-812429256EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +583,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -598,8 +598,8 @@
         <v>7</v>
       </c>
       <c r="B1" s="4">
-        <f>IFERROR(SUMPRODUCT(C25:C30,B25:B30)/SUM(B25:B30),"")</f>
-        <v>8.6208333333333336</v>
+        <f>IFERROR(SUMPRODUCT(C25:C29,B25:B29)/SUM(B25:B29),"")</f>
+        <v>13.606249999999999</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -772,14 +772,16 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>18.5</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" t="str">
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v/>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -808,14 +810,16 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>18</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" t="str">
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
@@ -869,13 +873,15 @@
       <c r="D17" s="5">
         <v>16</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>17</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
@@ -972,7 +978,7 @@
       </c>
       <c r="C26">
         <f>IFERROR(AVERAGE(I5,I9,I13),0)</f>
-        <v>13</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
@@ -996,7 +1002,7 @@
       </c>
       <c r="C28">
         <f>IFERROR(AVERAGE(I10,I17,I20),0)</f>
-        <v>16.375</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">

--- a/Résultats5A.xlsx
+++ b/Résultats5A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8A193-C0FA-41EE-9A0F-812429256EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F4B008-200C-4F00-84B1-9A059C3F155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/Résultats5A.xlsx
+++ b/Résultats5A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F4B008-200C-4F00-84B1-9A059C3F155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2D64D-21E9-4B7D-84AD-A62DE43373EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Coeffs</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Activité en entreprise</t>
+  </si>
+  <si>
+    <t>coef 3</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -167,11 +173,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,9 +303,42 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +739,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -599,7 +755,7 @@
       </c>
       <c r="B1" s="4">
         <f>IFERROR(SUMPRODUCT(C25:C29,B25:B29)/SUM(B25:B29),"")</f>
-        <v>13.606249999999999</v>
+        <v>16.007352941176471</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -615,13 +771,13 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,15 +792,15 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>12.75</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
       <c r="I4">
         <f t="shared" ref="I4:I5" si="0">IFERROR(AVERAGE(D4:H4),"")</f>
         <v>15.375</v>
@@ -660,15 +816,15 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -684,39 +840,39 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>17</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>16.2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6">
         <f>IFERROR(AVERAGE(D6:H6),"")</f>
         <v>16.400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
@@ -728,11 +884,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" t="str">
         <f t="shared" ref="I9:I22" si="1">IFERROR(AVERAGE(D9:H9),"")</f>
         <v/>
@@ -748,15 +904,15 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>16.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>17</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10">
         <f t="shared" si="1"/>
         <v>16.75</v>
@@ -772,13 +928,13 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>18.5</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11">
         <f t="shared" si="1"/>
         <v>18.5</v>
@@ -794,11 +950,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
@@ -810,35 +966,35 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>18</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -850,11 +1006,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -870,15 +1026,15 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>16</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>17</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17">
         <f t="shared" si="1"/>
         <v>16.5</v>
@@ -894,11 +1050,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -914,11 +1070,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -934,11 +1090,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I22" t="str">
@@ -1009,12 +1165,16 @@
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29">
         <f>IFERROR(AVERAGE(I19,I16),0)</f>
         <v>0</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
